--- a/PandasMiniProject.CH/Mini-Project-Part-2/output/BootcampOutputPart2.xlsx
+++ b/PandasMiniProject.CH/Mini-Project-Part-2/output/BootcampOutputPart2.xlsx
@@ -14,173 +14,173 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="162">
   <si>
     <t>BootcampName</t>
   </si>
   <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Recommenders</t>
-  </si>
-  <si>
-    <t>% Recommend</t>
+    <t>Enrollees</t>
+  </si>
+  <si>
+    <t>Recommendations</t>
+  </si>
+  <si>
+    <t>% Recommended</t>
+  </si>
+  <si>
+    <t>Stackademy</t>
+  </si>
+  <si>
+    <t>Dev League</t>
+  </si>
+  <si>
+    <t>Grace Hopper Academy</t>
+  </si>
+  <si>
+    <t>Telegraph Academy</t>
   </si>
   <si>
     <t>Code Institute</t>
   </si>
   <si>
+    <t>Code Platoon</t>
+  </si>
+  <si>
+    <t>Code Union</t>
+  </si>
+  <si>
+    <t>Fullstack Academy</t>
+  </si>
+  <si>
+    <t>CodeCraft School</t>
+  </si>
+  <si>
+    <t>CodeMasters Academy</t>
+  </si>
+  <si>
+    <t>Origin Code Academy</t>
+  </si>
+  <si>
+    <t>CodeaCamp</t>
+  </si>
+  <si>
+    <t>Codecademy Labs</t>
+  </si>
+  <si>
+    <t>Founders &amp; Coders</t>
+  </si>
+  <si>
+    <t>Coder Factory</t>
+  </si>
+  <si>
+    <t>Coder Foundry</t>
+  </si>
+  <si>
+    <t>Coder's Lab</t>
+  </si>
+  <si>
+    <t>Microsoft Research Data Science Summer School</t>
+  </si>
+  <si>
+    <t>Eleven Fifty Academy</t>
+  </si>
+  <si>
+    <t>EHD Academy</t>
+  </si>
+  <si>
+    <t>DigitalCrafts</t>
+  </si>
+  <si>
+    <t>SeedPaths</t>
+  </si>
+  <si>
+    <t>DESIGNATION</t>
+  </si>
+  <si>
+    <t>Science to Data Science</t>
+  </si>
+  <si>
+    <t>Ruby On The Beach</t>
+  </si>
+  <si>
+    <t>Code 42</t>
+  </si>
+  <si>
+    <t>Claim Academy</t>
+  </si>
+  <si>
+    <t>Grand Circus</t>
+  </si>
+  <si>
+    <t>The Data Incubator</t>
+  </si>
+  <si>
+    <t>AcadGild</t>
+  </si>
+  <si>
+    <t>Academia de Código</t>
+  </si>
+  <si>
+    <t>devCodeCamp</t>
+  </si>
+  <si>
+    <t>codeU</t>
+  </si>
+  <si>
+    <t>Makers Academy</t>
+  </si>
+  <si>
+    <t>We Got Coders</t>
+  </si>
+  <si>
+    <t>AngelHack Education</t>
+  </si>
+  <si>
+    <t>Le Wagon</t>
+  </si>
+  <si>
+    <t>Launch School (formerly Tealeaf Academy)</t>
+  </si>
+  <si>
+    <t>Viking Code School</t>
+  </si>
+  <si>
     <t>Austin Coding Academy</t>
   </si>
   <si>
-    <t>Origin Code Academy</t>
+    <t>Base10 Academy</t>
+  </si>
+  <si>
+    <t>Betamore</t>
+  </si>
+  <si>
+    <t>Big Nerd Ranch</t>
+  </si>
+  <si>
+    <t>Ladies Learning Code</t>
   </si>
   <si>
     <t>LEARN Academy</t>
   </si>
   <si>
-    <t>Le Wagon</t>
-  </si>
-  <si>
-    <t>AngelHack Education</t>
-  </si>
-  <si>
-    <t>Dev League</t>
-  </si>
-  <si>
-    <t>Grace Hopper Academy</t>
-  </si>
-  <si>
-    <t>Claim Academy</t>
-  </si>
-  <si>
-    <t>Founders &amp; Coders</t>
-  </si>
-  <si>
-    <t>Ruby On The Beach</t>
-  </si>
-  <si>
-    <t>Academia de CÃ³digo</t>
-  </si>
-  <si>
-    <t>devCodeCamp</t>
+    <t>Omaha Code School</t>
+  </si>
+  <si>
+    <t>BoiseCodeWorks</t>
+  </si>
+  <si>
+    <t>Operation Spark</t>
   </si>
   <si>
     <t>Byte Academy</t>
   </si>
   <si>
-    <t>SeedPaths</t>
-  </si>
-  <si>
-    <t>The Data Incubator</t>
-  </si>
-  <si>
-    <t>Coder Foundry</t>
-  </si>
-  <si>
-    <t>Grand Circus</t>
-  </si>
-  <si>
-    <t>Code 42</t>
-  </si>
-  <si>
-    <t>Betamore</t>
-  </si>
-  <si>
-    <t>AcadGild</t>
-  </si>
-  <si>
-    <t>Eleven Fifty Academy</t>
-  </si>
-  <si>
-    <t>EHD Academy</t>
-  </si>
-  <si>
-    <t>Codecademy Labs</t>
-  </si>
-  <si>
-    <t>Omaha Code School</t>
-  </si>
-  <si>
     <t>CODEcamp Charleston</t>
   </si>
   <si>
-    <t>Telegraph Academy</t>
-  </si>
-  <si>
-    <t>DigitalCrafts</t>
-  </si>
-  <si>
-    <t>CodeCraft School</t>
-  </si>
-  <si>
-    <t>BoiseCodeWorks</t>
-  </si>
-  <si>
-    <t>Code Platoon</t>
-  </si>
-  <si>
-    <t>Coder Factory</t>
-  </si>
-  <si>
-    <t>Ladies Learning Code</t>
-  </si>
-  <si>
-    <t>Stackademy</t>
-  </si>
-  <si>
-    <t>Coder's Lab</t>
-  </si>
-  <si>
-    <t>Big Nerd Ranch</t>
-  </si>
-  <si>
-    <t>We Got Coders</t>
-  </si>
-  <si>
-    <t>Fullstack Academy</t>
-  </si>
-  <si>
-    <t>Science to Data Science</t>
-  </si>
-  <si>
-    <t>DESIGNATION</t>
-  </si>
-  <si>
-    <t>Base10 Academy</t>
-  </si>
-  <si>
-    <t>Operation Spark</t>
-  </si>
-  <si>
     <t>Dev Academy</t>
   </si>
   <si>
-    <t>Makers Academy</t>
-  </si>
-  <si>
-    <t>CodeMasters Academy</t>
-  </si>
-  <si>
-    <t>Launch School (formerly Tealeaf Academy)</t>
-  </si>
-  <si>
-    <t>Viking Code School</t>
-  </si>
-  <si>
-    <t>CodeaCamp</t>
-  </si>
-  <si>
-    <t>Microsoft Research Data Science Summer School</t>
-  </si>
-  <si>
-    <t>codeU</t>
-  </si>
-  <si>
-    <t>Code Union</t>
-  </si>
-  <si>
     <t>Turing</t>
   </si>
   <si>
@@ -217,21 +217,21 @@
     <t>The Firehose Project</t>
   </si>
   <si>
+    <t>CareerFoundry</t>
+  </si>
+  <si>
+    <t>Launch Academy</t>
+  </si>
+  <si>
+    <t>DevMountain</t>
+  </si>
+  <si>
+    <t>Nashville Software School</t>
+  </si>
+  <si>
     <t>Software Guild</t>
   </si>
   <si>
-    <t>DevMountain</t>
-  </si>
-  <si>
-    <t>Launch Academy</t>
-  </si>
-  <si>
-    <t>Nashville Software School</t>
-  </si>
-  <si>
-    <t>CareerFoundry</t>
-  </si>
-  <si>
     <t>Epicodus</t>
   </si>
   <si>
@@ -241,63 +241,63 @@
     <t>The Iron Yard</t>
   </si>
   <si>
+    <t>Rutgers Coding Bootcamp</t>
+  </si>
+  <si>
+    <t>LAMP Camp</t>
+  </si>
+  <si>
     <t>Skillcrush</t>
   </si>
   <si>
-    <t>Rutgers Coding Bootcamp</t>
-  </si>
-  <si>
-    <t>LAMP Camp</t>
+    <t>Sabio.la</t>
   </si>
   <si>
     <t>Lighthouse Labs</t>
   </si>
   <si>
-    <t>Sabio.la</t>
+    <t>CodeNinja</t>
+  </si>
+  <si>
+    <t>IronHack</t>
   </si>
   <si>
     <t>Code Fellows</t>
   </si>
   <si>
-    <t>IronHack</t>
-  </si>
-  <si>
-    <t>CodeNinja</t>
-  </si>
-  <si>
     <t>Anyone Can Learn To Code</t>
   </si>
   <si>
     <t>New York Code + Design Academy</t>
   </si>
   <si>
+    <t>Tech Talent South</t>
+  </si>
+  <si>
     <t>Orange County Code School</t>
   </si>
   <si>
+    <t>Learn.Modern-Developer</t>
+  </si>
+  <si>
+    <t>BrainStation</t>
+  </si>
+  <si>
     <t>Tech Academy Portland</t>
   </si>
   <si>
-    <t>BrainStation</t>
-  </si>
-  <si>
-    <t>Tech Talent South</t>
-  </si>
-  <si>
-    <t>Learn.Modern-Developer</t>
-  </si>
-  <si>
     <t>Coding Dojo</t>
   </si>
   <si>
+    <t>10x.org.il</t>
+  </si>
+  <si>
     <t>Bitmaker Labs</t>
   </si>
   <si>
     <t>CodeCore Bootcamp</t>
   </si>
   <si>
-    <t>10x.org.il</t>
-  </si>
-  <si>
     <t>Codeup</t>
   </si>
   <si>
@@ -313,51 +313,57 @@
     <t>Bloc.io</t>
   </si>
   <si>
+    <t>Devschool</t>
+  </si>
+  <si>
+    <t>Wyncode</t>
+  </si>
+  <si>
+    <t>Bit Bootcamp</t>
+  </si>
+  <si>
+    <t>Camp Code Away</t>
+  </si>
+  <si>
+    <t>Codesmith</t>
+  </si>
+  <si>
+    <t>Mobile Makers Academy</t>
+  </si>
+  <si>
+    <t>HackerYou</t>
+  </si>
+  <si>
+    <t>4Geeks Academy</t>
+  </si>
+  <si>
+    <t>Metis</t>
+  </si>
+  <si>
+    <t>Digital House</t>
+  </si>
+  <si>
+    <t>RefactorU</t>
+  </si>
+  <si>
     <t>LearningFuze</t>
   </si>
   <si>
-    <t>Camp Code Away</t>
-  </si>
-  <si>
-    <t>Wyncode</t>
-  </si>
-  <si>
-    <t>Digital House</t>
-  </si>
-  <si>
     <t>Fire Bootcamp</t>
   </si>
   <si>
-    <t>Codesmith</t>
-  </si>
-  <si>
-    <t>Metis</t>
-  </si>
-  <si>
-    <t>Mobile Makers Academy</t>
-  </si>
-  <si>
-    <t>HackerYou</t>
-  </si>
-  <si>
     <t>PDX Code Guild</t>
   </si>
   <si>
-    <t>RefactorU</t>
-  </si>
-  <si>
-    <t>Devschool</t>
-  </si>
-  <si>
-    <t>Bit Bootcamp</t>
-  </si>
-  <si>
-    <t>4Geeks Academy</t>
+    <t>Zip Code Wilmington</t>
   </si>
   <si>
     <t>We Can Code IT</t>
   </si>
   <si>
+    <t>V School</t>
+  </si>
+  <si>
     <t>tradecraft</t>
   </si>
   <si>
@@ -367,51 +373,45 @@
     <t>Coding House</t>
   </si>
   <si>
-    <t>V School</t>
-  </si>
-  <si>
-    <t>Zip Code Wilmington</t>
-  </si>
-  <si>
     <t>Codify Academy</t>
   </si>
   <si>
     <t>Code For Progress</t>
   </si>
   <si>
+    <t>DaVinci Coders</t>
+  </si>
+  <si>
     <t>Interface Web School</t>
   </si>
   <si>
+    <t>TalentBuddy</t>
+  </si>
+  <si>
+    <t>Atlanta Code</t>
+  </si>
+  <si>
+    <t>Montana Code School</t>
+  </si>
+  <si>
+    <t>Astro Code School</t>
+  </si>
+  <si>
+    <t>Alphappl</t>
+  </si>
+  <si>
+    <t>World Tech Makers</t>
+  </si>
+  <si>
     <t>Academy X</t>
   </si>
   <si>
-    <t>World Tech Makers</t>
-  </si>
-  <si>
-    <t>Atlanta Code</t>
-  </si>
-  <si>
-    <t>Astro Code School</t>
-  </si>
-  <si>
-    <t>Montana Code School</t>
-  </si>
-  <si>
-    <t>DaVinci Coders</t>
+    <t>Academic Work Academy</t>
   </si>
   <si>
     <t>Data Science Dojo</t>
   </si>
   <si>
-    <t>TalentBuddy</t>
-  </si>
-  <si>
-    <t>Academic Work Academy</t>
-  </si>
-  <si>
-    <t>Alphappl</t>
-  </si>
-  <si>
     <t>100.00%</t>
   </si>
   <si>
@@ -500,9 +500,6 @@
   </si>
   <si>
     <t>0.00%</t>
-  </si>
-  <si>
-    <t>nan%</t>
   </si>
 </sst>
 </file>
@@ -899,10 +896,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>132</v>
@@ -913,10 +910,10 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>132</v>
@@ -927,10 +924,10 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>132</v>
@@ -955,10 +952,10 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
         <v>132</v>
@@ -969,10 +966,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>132</v>
@@ -983,10 +980,10 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
         <v>132</v>
@@ -1039,10 +1036,10 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
         <v>132</v>
@@ -1053,10 +1050,10 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
         <v>132</v>
@@ -1081,10 +1078,10 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
         <v>132</v>
@@ -1123,10 +1120,10 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
         <v>132</v>
@@ -1137,10 +1134,10 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
         <v>132</v>
@@ -1151,10 +1148,10 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
         <v>132</v>
@@ -1179,10 +1176,10 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
         <v>132</v>
@@ -1193,10 +1190,10 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
         <v>132</v>
@@ -1207,10 +1204,10 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
         <v>132</v>
@@ -1221,10 +1218,10 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
         <v>132</v>
@@ -1235,10 +1232,10 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
         <v>132</v>
@@ -1249,10 +1246,10 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
         <v>132</v>
@@ -1263,10 +1260,10 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="s">
         <v>132</v>
@@ -1305,10 +1302,10 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="s">
         <v>132</v>
@@ -1319,10 +1316,10 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="s">
         <v>132</v>
@@ -1347,10 +1344,10 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
         <v>132</v>
@@ -1361,10 +1358,10 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
         <v>132</v>
@@ -1375,10 +1372,10 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
         <v>132</v>
@@ -1389,10 +1386,10 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
         <v>132</v>
@@ -1403,10 +1400,10 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
         <v>132</v>
@@ -1417,10 +1414,10 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
         <v>132</v>
@@ -1473,10 +1470,10 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D44" t="s">
         <v>132</v>
@@ -1487,10 +1484,10 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D45" t="s">
         <v>132</v>
@@ -1501,10 +1498,10 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46" t="s">
         <v>132</v>
@@ -1515,10 +1512,10 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" t="s">
         <v>132</v>
@@ -1529,10 +1526,10 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D48" t="s">
         <v>132</v>
@@ -1543,10 +1540,10 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
         <v>132</v>
@@ -1571,10 +1568,10 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" t="s">
         <v>132</v>
@@ -1585,10 +1582,10 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
         <v>132</v>
@@ -1767,10 +1764,10 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C65">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D65" t="s">
         <v>144</v>
@@ -1823,10 +1820,10 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D69" t="s">
         <v>144</v>
@@ -1949,10 +1946,10 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C78">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D78" t="s">
         <v>149</v>
@@ -1977,10 +1974,10 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C80">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
         <v>149</v>
@@ -2019,10 +2016,10 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D83" t="s">
         <v>151</v>
@@ -2061,10 +2058,10 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C86">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D86" t="s">
         <v>151</v>
@@ -2215,10 +2212,10 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97" t="s">
         <v>158</v>
@@ -2229,10 +2226,10 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="s">
         <v>158</v>
@@ -2243,10 +2240,10 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="s">
         <v>158</v>
@@ -2257,10 +2254,10 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" t="s">
         <v>158</v>
@@ -2271,10 +2268,10 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D101" t="s">
         <v>158</v>
@@ -2285,10 +2282,10 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D102" t="s">
         <v>158</v>
@@ -2313,10 +2310,10 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D104" t="s">
         <v>158</v>
@@ -2369,10 +2366,10 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D108" t="s">
         <v>158</v>
@@ -2383,10 +2380,10 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D109" t="s">
         <v>158</v>
@@ -2397,10 +2394,10 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C110">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D110" t="s">
         <v>158</v>
@@ -2523,7 +2520,7 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2607,7 +2604,7 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2637,8 +2634,11 @@
       <c r="B127">
         <v>1</v>
       </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
       <c r="D127" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2648,8 +2648,11 @@
       <c r="B128">
         <v>1</v>
       </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
       <c r="D128" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2659,8 +2662,11 @@
       <c r="B129">
         <v>1</v>
       </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
       <c r="D129" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
